--- a/myESC-Particle-DEV/saves/fr_Summary.xlsx
+++ b/myESC-Particle-DEV/saves/fr_Summary.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\ESC\myESC-Particle-DEV\saves\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19656" windowHeight="8388" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="fr_OL_A_T_461_50_06" sheetId="1" r:id="rId1"/>
     <sheet name="fr_OL_A_T_461_50_10" sheetId="2" r:id="rId2"/>
     <sheet name="fr_OL_A_T_461_50_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>w, r/s</t>
   </si>
@@ -72,12 +62,24 @@
   <si>
     <t>Pfan03_1, deg</t>
   </si>
+  <si>
+    <t>Pfan06_avg, deg</t>
+  </si>
+  <si>
+    <t>MPfan06_avg, deg</t>
+  </si>
+  <si>
+    <t>Mmodel, dB</t>
+  </si>
+  <si>
+    <t>Pmodel, deg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +87,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,24 +404,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="41"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,26 +663,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1429,11 +1898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562520296"/>
-        <c:axId val="562518336"/>
+        <c:axId val="151889408"/>
+        <c:axId val="151891328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562520296"/>
+        <c:axId val="151889408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1492,12 +1961,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562518336"/>
+        <c:crossAx val="151891328"/>
         <c:crossesAt val="20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562518336"/>
+        <c:axId val="151891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1556,7 +2025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562520296"/>
+        <c:crossAx val="151889408"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1690,26 +2159,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2945,11 +3394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512737720"/>
-        <c:axId val="512742816"/>
+        <c:axId val="151947520"/>
+        <c:axId val="151949696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512737720"/>
+        <c:axId val="151947520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3008,12 +3457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512742816"/>
+        <c:crossAx val="151949696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512742816"/>
+        <c:axId val="151949696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -3072,7 +3521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512737720"/>
+        <c:crossAx val="151947520"/>
         <c:crossesAt val="157"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
@@ -3171,6 +3620,611 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fr_OL_A_T_461_60_06_avg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10149513465157689"/>
+          <c:y val="0.12527962440351256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPfan06_avg, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$Q$2:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-8.2740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2440000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.2360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.2259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.2840000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.2519999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.2039999999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.2360000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.9980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.9040000000000008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.734</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.746</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13.224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12.778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-15.857999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-17.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-33.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-32.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-22.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-45.387999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-32.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-55.929999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-25.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-21.937999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-21.994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197261568"/>
+        <c:axId val="197260032"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_avg, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$R$2:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.5579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.5619999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.6620000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.057999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-52.576000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.403999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-86.394000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101.02800000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.647999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.31800000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-149.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-134.66199999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-200.24199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-185.63000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-209.708</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-437.928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-288.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-373.37399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-354.60200000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-400.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-461.73600000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-440.62399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="234277120"/>
+        <c:axId val="234274816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197261568"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="157"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197260032"/>
+        <c:crossesAt val="20"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197260032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="-60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="197261568"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="234274816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234277120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="90"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="234277120"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234274816"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
@@ -3203,26 +4257,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4702,11 +5736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="562568912"/>
-        <c:axId val="512737328"/>
+        <c:axId val="155120000"/>
+        <c:axId val="155121920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="562568912"/>
+        <c:axId val="155120000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4765,12 +5799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512737328"/>
+        <c:crossAx val="155121920"/>
         <c:crossesAt val="20"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512737328"/>
+        <c:axId val="155121920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4829,1770 +5863,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562568912"/>
+        <c:crossAx val="155120000"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>fr_OL_A_T_461_50_06</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan06_1, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$H$2:$H$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-10.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-14.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-29.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-43.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-52.54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-63.43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-87.47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-100.66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-149.13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-134.74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-201.84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-185.31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-209.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-438.55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-303.65999999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-369.41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-386.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-397.27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-461.36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-440.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan06_2, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$I$2:$I$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.55</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.65</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-11.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-18.32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28.96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-43.84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-52.48</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-63.26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-86.45</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-100.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.97</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-149.96</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-134.76</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-199.91</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-186.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-207.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-438.89</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-277.59000000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-371.81</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-361.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-403.38</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-463.67</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-439.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan06_3, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$J$2:$J$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-10.16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-19.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-43.08</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-52.89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-63.04</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-85.44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-101.59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.07</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.03</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-148.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-135.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-196.92</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-184.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-211.14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-438.40999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-274.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-370.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-362.36</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-400.01</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-460.17</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-441.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan06_4, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$K$2:$K$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-3.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-10.18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-18.28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-24.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-29.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.85</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-44.82</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-51.95</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-63.02</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-87.24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-101.56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.78</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-113.74</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-151.16</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-133.94</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-199.28</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-186.71</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-210.65</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-436.87</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-284.83</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-378.64</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-380.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-400.95</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-462</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-441.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan06_5, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$L$2:$L$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.82</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.93</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-14.58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-19.38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-24.29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-43.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-53.02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-64.27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-85.37</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-101.13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.82</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.45</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-150.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-134.29</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-203.26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-185.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-209.92</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-436.92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-300.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-376.31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-281.67</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-402.31</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-461.48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-440.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_10!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pfan10_1, deg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$G$2:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$H$2:$H$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-2.14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-10.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-12.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-14.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-29.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-43.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-52.54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-63.43</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-87.47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-100.66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-96.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-114.81</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-149.13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-134.74</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-201.84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-185.31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-209.21</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-438.55</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-303.65999999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-369.41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-386.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-397.27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-461.36</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-440.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="512738896"/>
-        <c:axId val="512742032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="512738896"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="157"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="512742032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="512742032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0"/>
-          <c:min val="-360"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="512738896"/>
-        <c:crossesAt val="157"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="90"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6705,9 +5979,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>fr_OL_A_T_461_50_06</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6720,26 +5997,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6752,11 +6009,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$B$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan06_1, dB</c:v>
+                  <c:v>Pfan06_1, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6787,7 +6044,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6889,102 +6146,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$B$2:$B$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.3000000000000007</c:v>
+                  <c:v>-2.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.25</c:v>
+                  <c:v>-2.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.34</c:v>
+                  <c:v>-4.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.1999999999999993</c:v>
+                  <c:v>-5.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.36</c:v>
+                  <c:v>-7.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.2899999999999991</c:v>
+                  <c:v>-10.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.52</c:v>
+                  <c:v>-12.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.35</c:v>
+                  <c:v>-14.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.15</c:v>
+                  <c:v>-18.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.25</c:v>
+                  <c:v>-23.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.2200000000000006</c:v>
+                  <c:v>-29.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.11</c:v>
+                  <c:v>-36.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.85</c:v>
+                  <c:v>-43.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.82</c:v>
+                  <c:v>-52.54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.35</c:v>
+                  <c:v>-63.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.41</c:v>
+                  <c:v>-87.47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.69</c:v>
+                  <c:v>-100.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.28</c:v>
+                  <c:v>-96.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.73</c:v>
+                  <c:v>-114.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.97</c:v>
+                  <c:v>-149.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.809999999999999</c:v>
+                  <c:v>-134.74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-33.49</c:v>
+                  <c:v>-201.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.68</c:v>
+                  <c:v>-185.31</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-32.29</c:v>
+                  <c:v>-209.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.64</c:v>
+                  <c:v>-438.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-46.3</c:v>
+                  <c:v>-303.65999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-32.07</c:v>
+                  <c:v>-369.41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-50.56</c:v>
+                  <c:v>-386.99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.9</c:v>
+                  <c:v>-397.27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-22.06</c:v>
+                  <c:v>-461.36</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-21.88</c:v>
+                  <c:v>-440.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,11 +6253,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$C$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan06_2, dB</c:v>
+                  <c:v>Pfan06_2, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7031,7 +6288,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -7133,102 +6390,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$C$2:$C$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$I$2:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.18</c:v>
+                  <c:v>-2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.31</c:v>
+                  <c:v>-2.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.0399999999999991</c:v>
+                  <c:v>-3.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.31</c:v>
+                  <c:v>-5.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.36</c:v>
+                  <c:v>-7.81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.3699999999999992</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.2799999999999994</c:v>
+                  <c:v>-11.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.17</c:v>
+                  <c:v>-15.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.08</c:v>
+                  <c:v>-18.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.24</c:v>
+                  <c:v>-23.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.1300000000000008</c:v>
+                  <c:v>-28.96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8</c:v>
+                  <c:v>-36.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.87</c:v>
+                  <c:v>-43.84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.8</c:v>
+                  <c:v>-52.48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.35</c:v>
+                  <c:v>-63.26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.69</c:v>
+                  <c:v>-86.45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.7</c:v>
+                  <c:v>-100.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.28</c:v>
+                  <c:v>-96.97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.71</c:v>
+                  <c:v>-114.56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.72</c:v>
+                  <c:v>-149.96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.64</c:v>
+                  <c:v>-134.76</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-33.200000000000003</c:v>
+                  <c:v>-199.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.5</c:v>
+                  <c:v>-186.3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.95</c:v>
+                  <c:v>-207.62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.74</c:v>
+                  <c:v>-438.89</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-46.8</c:v>
+                  <c:v>-277.59000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-31.99</c:v>
+                  <c:v>-371.81</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-52.4</c:v>
+                  <c:v>-361.09</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.32</c:v>
+                  <c:v>-403.38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-21.81</c:v>
+                  <c:v>-463.67</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-21.85</c:v>
+                  <c:v>-439.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7240,11 +6497,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$D$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan06_3, dB</c:v>
+                  <c:v>Pfan06_3, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7275,7 +6532,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -7377,102 +6634,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$D$2:$D$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$J$2:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.25</c:v>
+                  <c:v>-2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.1999999999999993</c:v>
+                  <c:v>-2.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.19</c:v>
+                  <c:v>-4.1500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.15</c:v>
+                  <c:v>-5.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.3000000000000007</c:v>
+                  <c:v>-8.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.14</c:v>
+                  <c:v>-10.16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.39</c:v>
+                  <c:v>-12.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.08</c:v>
+                  <c:v>-15.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.27</c:v>
+                  <c:v>-19.47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.3699999999999992</c:v>
+                  <c:v>-23.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.98</c:v>
+                  <c:v>-28.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.98</c:v>
+                  <c:v>-36.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.82</c:v>
+                  <c:v>-43.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.72</c:v>
+                  <c:v>-52.89</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.2899999999999991</c:v>
+                  <c:v>-63.04</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.36</c:v>
+                  <c:v>-85.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.89</c:v>
+                  <c:v>-101.59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.23</c:v>
+                  <c:v>-96.07</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.88</c:v>
+                  <c:v>-114.03</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.89</c:v>
+                  <c:v>-148.16999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.78</c:v>
+                  <c:v>-135.58000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-34.57</c:v>
+                  <c:v>-196.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.82</c:v>
+                  <c:v>-184.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-33.11</c:v>
+                  <c:v>-211.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.76</c:v>
+                  <c:v>-438.40999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-44.37</c:v>
+                  <c:v>-274.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-32</c:v>
+                  <c:v>-370.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-53.69</c:v>
+                  <c:v>-362.36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.47</c:v>
+                  <c:v>-400.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-22.06</c:v>
+                  <c:v>-460.17</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-22.13</c:v>
+                  <c:v>-441.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7484,11 +6741,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$E$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan06_4, dB</c:v>
+                  <c:v>Pfan06_4, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7519,7 +6776,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -7621,102 +6878,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$E$2:$E$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$K$2:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.36</c:v>
+                  <c:v>-3.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.2200000000000006</c:v>
+                  <c:v>-3.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.2799999999999994</c:v>
+                  <c:v>-4.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.14</c:v>
+                  <c:v>-6.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.2100000000000009</c:v>
+                  <c:v>-6.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.15</c:v>
+                  <c:v>-10.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.25</c:v>
+                  <c:v>-12.19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.19</c:v>
+                  <c:v>-15.14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.1199999999999992</c:v>
+                  <c:v>-18.28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.1999999999999993</c:v>
+                  <c:v>-24.49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.09</c:v>
+                  <c:v>-29.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.89</c:v>
+                  <c:v>-36.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.99</c:v>
+                  <c:v>-44.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.7</c:v>
+                  <c:v>-51.95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.27</c:v>
+                  <c:v>-63.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.3800000000000008</c:v>
+                  <c:v>-87.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.74</c:v>
+                  <c:v>-101.56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.24</c:v>
+                  <c:v>-96.78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.79</c:v>
+                  <c:v>-113.74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.9</c:v>
+                  <c:v>-151.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.89</c:v>
+                  <c:v>-133.94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-34.15</c:v>
+                  <c:v>-199.28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.9</c:v>
+                  <c:v>-186.71</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-32.83</c:v>
+                  <c:v>-210.65</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.65</c:v>
+                  <c:v>-436.87</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-45.48</c:v>
+                  <c:v>-284.83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-32.08</c:v>
+                  <c:v>-378.64</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-68.06</c:v>
+                  <c:v>-380.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.55</c:v>
+                  <c:v>-400.95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-21.99</c:v>
+                  <c:v>-462</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-22.07</c:v>
+                  <c:v>-441.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,11 +6985,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$F$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan06_5, dB</c:v>
+                  <c:v>Pfan06_5, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7763,7 +7020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -7865,102 +7122,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$F$2:$F$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$L$2:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.2799999999999994</c:v>
+                  <c:v>-2.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.24</c:v>
+                  <c:v>-3.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.33</c:v>
+                  <c:v>-4.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.33</c:v>
+                  <c:v>-4.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.19</c:v>
+                  <c:v>-7.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.31</c:v>
+                  <c:v>-9.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.23</c:v>
+                  <c:v>-12.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.01</c:v>
+                  <c:v>-14.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.4</c:v>
+                  <c:v>-19.38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.1199999999999992</c:v>
+                  <c:v>-24.29</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.01</c:v>
+                  <c:v>-28.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.01</c:v>
+                  <c:v>-36.29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.99</c:v>
+                  <c:v>-43.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.63</c:v>
+                  <c:v>-53.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.39</c:v>
+                  <c:v>-64.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.16</c:v>
+                  <c:v>-85.37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.71</c:v>
+                  <c:v>-101.13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.09</c:v>
+                  <c:v>-96.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.78</c:v>
+                  <c:v>-114.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.81</c:v>
+                  <c:v>-150.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.84</c:v>
+                  <c:v>-134.29</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-34.31</c:v>
+                  <c:v>-203.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.47</c:v>
+                  <c:v>-185.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-31.97</c:v>
+                  <c:v>-209.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.72</c:v>
+                  <c:v>-436.92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-43.99</c:v>
+                  <c:v>-300.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-32.26</c:v>
+                  <c:v>-376.31</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-54.94</c:v>
+                  <c:v>-281.67</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.76</c:v>
+                  <c:v>-402.31</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-21.77</c:v>
+                  <c:v>-461.48</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-22.04</c:v>
+                  <c:v>-440.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7972,11 +7229,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_10!$B$1</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mfan10_1, dB</c:v>
+                  <c:v>Pfan10_1, deg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8007,7 +7264,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$A$2:$A$32</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$G$2:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -8109,352 +7366,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$B$2:$B$32</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-8.3000000000000007</c:v>
+                  <c:v>-2.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.25</c:v>
+                  <c:v>-2.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.34</c:v>
+                  <c:v>-4.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.1999999999999993</c:v>
+                  <c:v>-5.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.36</c:v>
+                  <c:v>-7.59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.2899999999999991</c:v>
+                  <c:v>-10.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.52</c:v>
+                  <c:v>-12.42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.35</c:v>
+                  <c:v>-14.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.15</c:v>
+                  <c:v>-18.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.25</c:v>
+                  <c:v>-23.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.2200000000000006</c:v>
+                  <c:v>-29.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.11</c:v>
+                  <c:v>-36.03</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.85</c:v>
+                  <c:v>-43.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.82</c:v>
+                  <c:v>-52.54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-8.35</c:v>
+                  <c:v>-63.43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.41</c:v>
+                  <c:v>-87.47</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.69</c:v>
+                  <c:v>-100.66</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-13.28</c:v>
+                  <c:v>-96.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-12.73</c:v>
+                  <c:v>-114.81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.97</c:v>
+                  <c:v>-149.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.809999999999999</c:v>
+                  <c:v>-134.74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-33.49</c:v>
+                  <c:v>-201.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-25.68</c:v>
+                  <c:v>-185.31</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-32.29</c:v>
+                  <c:v>-209.21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-22.64</c:v>
+                  <c:v>-438.55</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-46.3</c:v>
+                  <c:v>-303.65999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-32.07</c:v>
+                  <c:v>-369.41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-50.56</c:v>
+                  <c:v>-386.99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-25.9</c:v>
+                  <c:v>-397.27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-22.06</c:v>
+                  <c:v>-461.36</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-21.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fr_OL_A_T_461_50_3!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mfan03_1, dB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_3!$A$2:$A$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.01</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.58</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39.83</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.08</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>99.97</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>126.05</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>158.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>fr_OL_A_T_461_50_3!$B$2:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>-8.7799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-8.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-8.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-8.23</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-6.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-7.36</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-9.42</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-12.17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-10.46</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.33</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-13.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-40.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-21.44</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-27.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-16.760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-45.86</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-27.07</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-50.72</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-16.02</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-16.25</c:v>
+                  <c:v>-440.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8469,11 +7476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="784811824"/>
-        <c:axId val="784812216"/>
+        <c:axId val="189945728"/>
+        <c:axId val="189952000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="784811824"/>
+        <c:axId val="189945728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8532,16 +7539,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784812216"/>
-        <c:crossesAt val="20"/>
+        <c:crossAx val="189952000"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784812216"/>
+        <c:axId val="189952000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="-60"/>
+          <c:max val="0"/>
+          <c:min val="-360"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8596,10 +7603,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784811824"/>
-        <c:crossesAt val="0.1"/>
+        <c:crossAx val="189945728"/>
+        <c:crossesAt val="157"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
+        <c:majorUnit val="90"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8712,12 +7719,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>fr_OL_A_T_461_50_06</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8730,26 +7734,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -8762,11 +7746,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$H$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan06_1, deg</c:v>
+                  <c:v>Mfan06_1, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8797,7 +7781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -8899,102 +7883,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$H$2:$H$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.14</c:v>
+                  <c:v>-8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.67</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.59</c:v>
+                  <c:v>-8.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.74</c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.59</c:v>
+                  <c:v>-8.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.19</c:v>
+                  <c:v>-8.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.42</c:v>
+                  <c:v>-8.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.7</c:v>
+                  <c:v>-8.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.149999999999999</c:v>
+                  <c:v>-8.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.16</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.5</c:v>
+                  <c:v>-8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.03</c:v>
+                  <c:v>-8.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.91</c:v>
+                  <c:v>-7.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-52.54</c:v>
+                  <c:v>-7.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-63.43</c:v>
+                  <c:v>-8.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-87.47</c:v>
+                  <c:v>-9.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-100.66</c:v>
+                  <c:v>-10.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.6</c:v>
+                  <c:v>-13.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-114.81</c:v>
+                  <c:v>-12.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-149.13</c:v>
+                  <c:v>-15.97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-134.74</c:v>
+                  <c:v>-17.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-201.84</c:v>
+                  <c:v>-33.49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-185.31</c:v>
+                  <c:v>-25.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-209.21</c:v>
+                  <c:v>-32.29</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-438.55</c:v>
+                  <c:v>-22.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-303.65999999999997</c:v>
+                  <c:v>-46.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-369.41</c:v>
+                  <c:v>-32.07</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-386.99</c:v>
+                  <c:v>-50.56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-397.27</c:v>
+                  <c:v>-25.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-461.36</c:v>
+                  <c:v>-22.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-440.18</c:v>
+                  <c:v>-21.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9006,11 +7990,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$I$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan06_2, deg</c:v>
+                  <c:v>Mfan06_2, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9041,7 +8025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9143,102 +8127,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$I$2:$I$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.2799999999999998</c:v>
+                  <c:v>-8.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.75</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.55</c:v>
+                  <c:v>-8.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.65</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.81</c:v>
+                  <c:v>-8.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-8.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-11.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-15.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-18.32</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-23.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28.96</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-36.22</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.84</c:v>
+                  <c:v>-7.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-52.48</c:v>
+                  <c:v>-7.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-63.26</c:v>
+                  <c:v>-8.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-86.45</c:v>
+                  <c:v>-9.69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-100.2</c:v>
+                  <c:v>-10.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.97</c:v>
+                  <c:v>-13.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-114.56</c:v>
+                  <c:v>-12.71</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-149.96</c:v>
+                  <c:v>-15.72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-134.76</c:v>
+                  <c:v>-17.64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-199.91</c:v>
+                  <c:v>-33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-186.3</c:v>
+                  <c:v>-25.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-207.62</c:v>
+                  <c:v>-31.95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-438.89</c:v>
+                  <c:v>-22.74</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-277.59000000000003</c:v>
+                  <c:v>-46.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-371.81</c:v>
+                  <c:v>-31.99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-361.09</c:v>
+                  <c:v>-52.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-403.38</c:v>
+                  <c:v>-25.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-463.67</c:v>
+                  <c:v>-21.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-439.65</c:v>
+                  <c:v>-21.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,11 +8234,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$J$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan06_3, deg</c:v>
+                  <c:v>Mfan06_3, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9285,7 +8269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9387,102 +8371,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$J$2:$J$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.5299999999999998</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.65</c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.1500000000000004</c:v>
+                  <c:v>-8.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.81</c:v>
+                  <c:v>-8.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.66</c:v>
+                  <c:v>-8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.16</c:v>
+                  <c:v>-8.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.01</c:v>
+                  <c:v>-8.39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.36</c:v>
+                  <c:v>-8.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.47</c:v>
+                  <c:v>-8.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.66</c:v>
+                  <c:v>-8.3699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-28.26</c:v>
+                  <c:v>-7.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.21</c:v>
+                  <c:v>-7.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.08</c:v>
+                  <c:v>-7.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-52.89</c:v>
+                  <c:v>-7.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-63.04</c:v>
+                  <c:v>-8.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-85.44</c:v>
+                  <c:v>-9.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-101.59</c:v>
+                  <c:v>-10.89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.07</c:v>
+                  <c:v>-13.23</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-114.03</c:v>
+                  <c:v>-12.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-148.16999999999999</c:v>
+                  <c:v>-15.89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-135.58000000000001</c:v>
+                  <c:v>-17.78</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-196.92</c:v>
+                  <c:v>-34.57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-184.75</c:v>
+                  <c:v>-25.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-211.14</c:v>
+                  <c:v>-33.11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-438.40999999999997</c:v>
+                  <c:v>-22.76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-274.89999999999998</c:v>
+                  <c:v>-44.37</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-370.7</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-362.36</c:v>
+                  <c:v>-53.69</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-400.01</c:v>
+                  <c:v>-25.47</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-460.17</c:v>
+                  <c:v>-22.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-441.92</c:v>
+                  <c:v>-22.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,11 +8478,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$K$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan06_4, deg</c:v>
+                  <c:v>Mfan06_4, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9529,7 +8513,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9631,102 +8615,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$K$2:$K$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-3.02</c:v>
+                  <c:v>-8.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.99</c:v>
+                  <c:v>-8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.78</c:v>
+                  <c:v>-8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.23</c:v>
+                  <c:v>-8.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.72</c:v>
+                  <c:v>-8.2100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.18</c:v>
+                  <c:v>-8.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.19</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15.14</c:v>
+                  <c:v>-8.19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.28</c:v>
+                  <c:v>-8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-24.49</c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.33</c:v>
+                  <c:v>-8.09</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.85</c:v>
+                  <c:v>-7.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-44.82</c:v>
+                  <c:v>-7.99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-51.95</c:v>
+                  <c:v>-7.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-63.02</c:v>
+                  <c:v>-8.27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-87.24</c:v>
+                  <c:v>-9.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-101.56</c:v>
+                  <c:v>-10.74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.78</c:v>
+                  <c:v>-13.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-113.74</c:v>
+                  <c:v>-12.79</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-151.16</c:v>
+                  <c:v>-15.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-133.94</c:v>
+                  <c:v>-17.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-199.28</c:v>
+                  <c:v>-34.15</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-186.71</c:v>
+                  <c:v>-25.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-210.65</c:v>
+                  <c:v>-32.83</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-436.87</c:v>
+                  <c:v>-22.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-284.83</c:v>
+                  <c:v>-45.48</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-378.64</c:v>
+                  <c:v>-32.08</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-380.9</c:v>
+                  <c:v>-68.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-400.95</c:v>
+                  <c:v>-25.55</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-462</c:v>
+                  <c:v>-21.99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-441.13</c:v>
+                  <c:v>-22.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9738,11 +8722,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_06!$L$1</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan06_5, deg</c:v>
+                  <c:v>Mfan06_5, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9773,7 +8757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9875,102 +8859,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_06!$L$2:$L$32</c:f>
+              <c:f>fr_OL_A_T_461_50_06!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.82</c:v>
+                  <c:v>-8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.26</c:v>
+                  <c:v>-8.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.33</c:v>
+                  <c:v>-8.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.93</c:v>
+                  <c:v>-8.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.03</c:v>
+                  <c:v>-8.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.7799999999999994</c:v>
+                  <c:v>-8.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.15</c:v>
+                  <c:v>-8.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.58</c:v>
+                  <c:v>-8.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19.38</c:v>
+                  <c:v>-8.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-24.29</c:v>
+                  <c:v>-8.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-28.92</c:v>
+                  <c:v>-8.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.29</c:v>
+                  <c:v>-8.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.8</c:v>
+                  <c:v>-7.99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-53.02</c:v>
+                  <c:v>-7.63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-64.27</c:v>
+                  <c:v>-8.39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-85.37</c:v>
+                  <c:v>-9.16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-101.13</c:v>
+                  <c:v>-10.71</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.82</c:v>
+                  <c:v>-13.09</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-114.45</c:v>
+                  <c:v>-12.78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-150.9</c:v>
+                  <c:v>-15.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-134.29</c:v>
+                  <c:v>-17.84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-203.26</c:v>
+                  <c:v>-34.31</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-185.08</c:v>
+                  <c:v>-25.47</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-209.92</c:v>
+                  <c:v>-31.97</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-436.92</c:v>
+                  <c:v>-22.72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-300.25</c:v>
+                  <c:v>-43.99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-376.31</c:v>
+                  <c:v>-32.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-281.67</c:v>
+                  <c:v>-54.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-402.31</c:v>
+                  <c:v>-25.76</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-461.48</c:v>
+                  <c:v>-21.77</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-440.24</c:v>
+                  <c:v>-22.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9982,11 +8966,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_10!$H$1</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan10_1, deg</c:v>
+                  <c:v>Mfan10_1, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10017,7 +9001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$G$2:$G$32</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10119,102 +9103,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_10!$H$2:$H$32</c:f>
+              <c:f>fr_OL_A_T_461_50_10!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-2.14</c:v>
+                  <c:v>-8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.67</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.59</c:v>
+                  <c:v>-8.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.74</c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.59</c:v>
+                  <c:v>-8.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.19</c:v>
+                  <c:v>-8.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.42</c:v>
+                  <c:v>-8.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-14.7</c:v>
+                  <c:v>-8.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.149999999999999</c:v>
+                  <c:v>-8.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-23.16</c:v>
+                  <c:v>-8.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-29.5</c:v>
+                  <c:v>-8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.03</c:v>
+                  <c:v>-8.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.91</c:v>
+                  <c:v>-7.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-52.54</c:v>
+                  <c:v>-7.82</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-63.43</c:v>
+                  <c:v>-8.35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-87.47</c:v>
+                  <c:v>-9.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-100.66</c:v>
+                  <c:v>-10.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-96.6</c:v>
+                  <c:v>-13.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-114.81</c:v>
+                  <c:v>-12.73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-149.13</c:v>
+                  <c:v>-15.97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-134.74</c:v>
+                  <c:v>-17.809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-201.84</c:v>
+                  <c:v>-33.49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-185.31</c:v>
+                  <c:v>-25.68</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-209.21</c:v>
+                  <c:v>-32.29</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-438.55</c:v>
+                  <c:v>-22.64</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-303.65999999999997</c:v>
+                  <c:v>-46.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-369.41</c:v>
+                  <c:v>-32.07</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-386.99</c:v>
+                  <c:v>-50.56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-397.27</c:v>
+                  <c:v>-25.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-461.36</c:v>
+                  <c:v>-22.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-440.18</c:v>
+                  <c:v>-21.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10226,11 +9210,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>fr_OL_A_T_461_50_3!$I$1</c:f>
+              <c:f>fr_OL_A_T_461_50_3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pfan03_1, deg</c:v>
+                  <c:v>Mfan03_1, dB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10267,7 +9251,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_3!$H$2:$H$32</c:f>
+              <c:f>fr_OL_A_T_461_50_3!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10369,102 +9353,102 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>fr_OL_A_T_461_50_3!$I$2:$I$32</c:f>
+              <c:f>fr_OL_A_T_461_50_3!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-1.78</c:v>
+                  <c:v>-8.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.1100000000000003</c:v>
+                  <c:v>-8.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.82</c:v>
+                  <c:v>-9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.49</c:v>
+                  <c:v>-8.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.42</c:v>
+                  <c:v>-8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.11</c:v>
+                  <c:v>-8.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.16</c:v>
+                  <c:v>-8.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.95</c:v>
+                  <c:v>-8.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-22.84</c:v>
+                  <c:v>-8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.68</c:v>
+                  <c:v>-8.23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30.11</c:v>
+                  <c:v>-8.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-38.67</c:v>
+                  <c:v>-7.98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-43.96</c:v>
+                  <c:v>-7.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-51.45</c:v>
+                  <c:v>-6.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-60.08</c:v>
+                  <c:v>-7.36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-90.41</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-103.57</c:v>
+                  <c:v>-9.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-80.099999999999994</c:v>
+                  <c:v>-12.17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-99.46</c:v>
+                  <c:v>-10.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-143.80000000000001</c:v>
+                  <c:v>-13.33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-114.56</c:v>
+                  <c:v>-13.75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-18.34</c:v>
+                  <c:v>-40.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-171.21</c:v>
+                  <c:v>-21.44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-188.2</c:v>
+                  <c:v>-27.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-432.69</c:v>
+                  <c:v>-16.760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-240.22</c:v>
+                  <c:v>-45.86</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-377.34</c:v>
+                  <c:v>-27.07</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-455.54</c:v>
+                  <c:v>-50.72</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-397.7</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-454.15999999999997</c:v>
+                  <c:v>-16.02</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-432.83</c:v>
+                  <c:v>-16.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10479,11 +9463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="784812608"/>
-        <c:axId val="784816920"/>
+        <c:axId val="190200064"/>
+        <c:axId val="190202240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="784812608"/>
+        <c:axId val="190200064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10542,12 +9526,2002 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784816920"/>
+        <c:crossAx val="190202240"/>
+        <c:crossesAt val="20"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190202240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="-60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190200064"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>fr_OL_A_T_461_50_06</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_1, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-52.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-87.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-149.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-134.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-201.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-185.31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-209.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-438.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-303.65999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-369.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-386.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-397.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-461.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-440.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_2, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-52.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-86.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-149.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-134.76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-199.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-186.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-207.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-438.89</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-277.59000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-371.81</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-361.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-403.38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-463.67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-439.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_3, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$J$2:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-19.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-52.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-85.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-148.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-135.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-196.92</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-184.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-211.14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-438.40999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-274.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-370.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-362.36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-400.01</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-460.17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-441.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_4, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$K$2:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-3.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-24.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-29.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-44.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-87.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-113.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-151.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-133.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-199.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-186.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-210.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-436.87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-284.83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-378.64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-380.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-400.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-462</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-441.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_06!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan06_5, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_06!$L$2:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-19.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-24.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-53.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-64.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-85.37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-150.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-134.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-203.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-185.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-209.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-436.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-300.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-376.31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-281.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-402.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-461.48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-440.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_10!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan10_1, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_10!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_10!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-12.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-23.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-29.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-36.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-52.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-87.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-100.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-96.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-114.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-149.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-134.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-201.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-185.31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-209.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-438.55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-303.65999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-369.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-386.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-397.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-461.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-440.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fr_OL_A_T_461_50_3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pfan03_1, deg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_3!$H$2:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.83</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>126.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>158.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fr_OL_A_T_461_50_3!$I$2:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-1.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-17.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-30.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-38.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-43.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-60.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-90.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-103.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-99.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-143.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-114.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-18.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-171.21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-188.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-432.69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-240.22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-377.34</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-455.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-397.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-454.15999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-432.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="190268928"/>
+        <c:axId val="190270848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="190268928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="157"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190270848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784816920"/>
+        <c:axId val="190270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0"/>
@@ -10606,7 +11580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784812608"/>
+        <c:crossAx val="190268928"/>
         <c:crossesAt val="157"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
@@ -14028,16 +15002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14058,16 +15032,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14081,6 +15055,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14482,7 +15486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14490,15 +15494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14535,8 +15539,23 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.16</v>
       </c>
@@ -14573,8 +15592,25 @@
       <c r="L2">
         <v>-2.82</v>
       </c>
+      <c r="N2">
+        <v>0.16</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-7.56</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-2.96</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>-8.2740000000000009</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGE(H2:L2)</f>
+        <v>-2.5579999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -14611,8 +15647,25 @@
       <c r="L3">
         <v>-3.26</v>
       </c>
+      <c r="N3">
+        <v>0.2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-3.91</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q32" si="0">AVERAGE(B3:F3)</f>
+        <v>-8.2440000000000015</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R32" si="1">AVERAGE(H3:L3)</f>
+        <v>-3.0640000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -14649,8 +15702,25 @@
       <c r="L4">
         <v>-4.33</v>
       </c>
+      <c r="N4">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-4.92</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-8.2360000000000007</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>-4.2799999999999994</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.32</v>
       </c>
@@ -14687,8 +15757,25 @@
       <c r="L5">
         <v>-4.93</v>
       </c>
+      <c r="N5">
+        <v>0.32</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-6.18</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>-8.2259999999999991</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>-5.6719999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -14725,8 +15812,25 @@
       <c r="L6">
         <v>-7.03</v>
       </c>
+      <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-7.58</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-7.78</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-8.2840000000000007</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>-7.5619999999999994</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -14763,8 +15867,25 @@
       <c r="L7">
         <v>-9.7799999999999994</v>
       </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-7.57</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-9.77</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>-8.2519999999999989</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-9.6620000000000008</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.63</v>
       </c>
@@ -14801,8 +15922,25 @@
       <c r="L8">
         <v>-12.15</v>
       </c>
+      <c r="N8">
+        <v>0.63</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-7.56</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-12.26</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-8.3339999999999996</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>-12.057999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.79</v>
       </c>
@@ -14839,8 +15977,25 @@
       <c r="L9">
         <v>-14.58</v>
       </c>
+      <c r="N9">
+        <v>0.79</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-7.55</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-15.39</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>-8.16</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>-15.016</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -14877,8 +16032,25 @@
       <c r="L10">
         <v>-19.38</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-7.52</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-19.2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-8.2039999999999988</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>-18.72</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.26</v>
       </c>
@@ -14915,8 +16087,25 @@
       <c r="L11">
         <v>-24.29</v>
       </c>
+      <c r="N11">
+        <v>1.26</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-23.95</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-8.2360000000000007</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>-23.844000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.58</v>
       </c>
@@ -14953,8 +16142,25 @@
       <c r="L12">
         <v>-28.92</v>
       </c>
+      <c r="N12">
+        <v>1.58</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-7.45</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-29.51</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>-8.0860000000000003</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>-28.994</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.99</v>
       </c>
@@ -14991,8 +16197,25 @@
       <c r="L13">
         <v>-36.29</v>
       </c>
+      <c r="N13">
+        <v>1.99</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-7.41</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-36.47</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>-7.9980000000000002</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>-36.32</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.5099999999999998</v>
       </c>
@@ -15029,8 +16252,25 @@
       <c r="L14">
         <v>-43.8</v>
       </c>
+      <c r="N14">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-7.33</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-44.15</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>-7.9040000000000008</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>-43.89</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.16</v>
       </c>
@@ -15067,8 +16307,25 @@
       <c r="L15">
         <v>-53.02</v>
       </c>
+      <c r="N15">
+        <v>3.16</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-7.25</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-53.22</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>-7.734</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>-52.576000000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.98</v>
       </c>
@@ -15105,8 +16362,25 @@
       <c r="L16">
         <v>-64.27</v>
       </c>
+      <c r="N16">
+        <v>3.98</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-7.91</v>
+      </c>
+      <c r="P16" s="1">
+        <v>-64.41</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>-8.33</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>-63.403999999999996</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.01</v>
       </c>
@@ -15143,8 +16417,25 @@
       <c r="L17">
         <v>-85.37</v>
       </c>
+      <c r="N17">
+        <v>5.01</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-8.8800000000000008</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-87.17</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>-9.4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>-86.394000000000005</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.31</v>
       </c>
@@ -15181,8 +16472,25 @@
       <c r="L18">
         <v>-101.13</v>
       </c>
+      <c r="N18">
+        <v>6.31</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-10.25</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-102.55</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>-10.746</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>-101.02800000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.95</v>
       </c>
@@ -15219,8 +16527,25 @@
       <c r="L19">
         <v>-96.82</v>
       </c>
+      <c r="N19">
+        <v>7.95</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-12.9</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-99.49</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>-13.224</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>-96.647999999999996</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10.01</v>
       </c>
@@ -15257,8 +16582,25 @@
       <c r="L20">
         <v>-114.45</v>
       </c>
+      <c r="N20">
+        <v>10.01</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-12.61</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-116.89</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>-12.778</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>-114.31800000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12.58</v>
       </c>
@@ -15295,8 +16637,25 @@
       <c r="L21">
         <v>-150.9</v>
       </c>
+      <c r="N21">
+        <v>12.58</v>
+      </c>
+      <c r="O21" s="1">
+        <v>-15.44</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-152.83000000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>-15.857999999999999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>-149.86399999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15.86</v>
       </c>
@@ -15333,8 +16692,25 @@
       <c r="L22">
         <v>-134.29</v>
       </c>
+      <c r="N22">
+        <v>15.86</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-17.68</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-139.12</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>-17.792000000000002</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>-134.66199999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19.95</v>
       </c>
@@ -15371,8 +16747,25 @@
       <c r="L23">
         <v>-203.26</v>
       </c>
+      <c r="N23">
+        <v>19.95</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-31.26</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-212.4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>-33.944000000000003</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>-200.24199999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>25.11</v>
       </c>
@@ -15409,8 +16802,25 @@
       <c r="L24">
         <v>-185.08</v>
       </c>
+      <c r="N24">
+        <v>25.11</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-25.3</v>
+      </c>
+      <c r="P24" s="1">
+        <v>-196.2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>-25.673999999999999</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>-185.63000000000002</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31.64</v>
       </c>
@@ -15447,8 +16857,25 @@
       <c r="L25">
         <v>-209.92</v>
       </c>
+      <c r="N25">
+        <v>31.64</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-31.58</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-225.91</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>-32.43</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>-209.708</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>39.83</v>
       </c>
@@ -15485,8 +16912,25 @@
       <c r="L26">
         <v>-436.92</v>
       </c>
+      <c r="N26">
+        <v>39.83</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-23.17</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-433.65</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>-22.701999999999998</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>-437.928</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50.11</v>
       </c>
@@ -15523,8 +16967,25 @@
       <c r="L27">
         <v>-300.25</v>
       </c>
+      <c r="N27">
+        <v>50.11</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-41.02</v>
+      </c>
+      <c r="P27" s="1">
+        <v>-329.09</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>-45.387999999999998</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>-288.24599999999998</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>63.08</v>
       </c>
@@ -15561,8 +17022,25 @@
       <c r="L28">
         <v>-376.31</v>
       </c>
+      <c r="N28">
+        <v>63.08</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-30.72</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-376.01</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>-32.08</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>-373.37399999999997</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>79.489999999999995</v>
       </c>
@@ -15599,8 +17077,25 @@
       <c r="L29">
         <v>-281.67</v>
       </c>
+      <c r="N29">
+        <v>79.489999999999995</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-47.71</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-429.89</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>-55.929999999999993</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>-354.60200000000003</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99.97</v>
       </c>
@@ -15637,8 +17132,25 @@
       <c r="L30">
         <v>-402.31</v>
       </c>
+      <c r="N30">
+        <v>99.97</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-25.71</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-403.09000000000003</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>-25.6</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>-400.78399999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>126.05</v>
       </c>
@@ -15675,8 +17187,25 @@
       <c r="L31">
         <v>-461.48</v>
       </c>
+      <c r="N31">
+        <v>126.05</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-22.1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-463.33</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>-21.937999999999995</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>-461.73600000000005</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>158.49</v>
       </c>
@@ -15712,11 +17241,29 @@
       </c>
       <c r="L32">
         <v>-440.24</v>
+      </c>
+      <c r="N32">
+        <v>158.49</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-21.99</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-439.28</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>-21.994</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>-440.62399999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15725,12 +17272,12 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15744,7 +17291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.16</v>
       </c>
@@ -15758,7 +17305,7 @@
         <v>-2.14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -15772,7 +17319,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -15786,7 +17333,7 @@
         <v>-4.59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.32</v>
       </c>
@@ -15800,7 +17347,7 @@
         <v>-5.74</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -15814,7 +17361,7 @@
         <v>-7.59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -15828,7 +17375,7 @@
         <v>-10.19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.63</v>
       </c>
@@ -15842,7 +17389,7 @@
         <v>-12.42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.79</v>
       </c>
@@ -15856,7 +17403,7 @@
         <v>-14.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -15870,7 +17417,7 @@
         <v>-18.149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.26</v>
       </c>
@@ -15884,7 +17431,7 @@
         <v>-23.16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.58</v>
       </c>
@@ -15898,7 +17445,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.99</v>
       </c>
@@ -15912,7 +17459,7 @@
         <v>-36.03</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5099999999999998</v>
       </c>
@@ -15926,7 +17473,7 @@
         <v>-43.91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.16</v>
       </c>
@@ -15940,7 +17487,7 @@
         <v>-52.54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.98</v>
       </c>
@@ -15954,7 +17501,7 @@
         <v>-63.43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.01</v>
       </c>
@@ -15968,7 +17515,7 @@
         <v>-87.47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.31</v>
       </c>
@@ -15982,7 +17529,7 @@
         <v>-100.66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.95</v>
       </c>
@@ -15996,7 +17543,7 @@
         <v>-96.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10.01</v>
       </c>
@@ -16010,7 +17557,7 @@
         <v>-114.81</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.58</v>
       </c>
@@ -16024,7 +17571,7 @@
         <v>-149.13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15.86</v>
       </c>
@@ -16038,7 +17585,7 @@
         <v>-134.74</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19.95</v>
       </c>
@@ -16052,7 +17599,7 @@
         <v>-201.84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25.11</v>
       </c>
@@ -16066,7 +17613,7 @@
         <v>-185.31</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31.64</v>
       </c>
@@ -16080,7 +17627,7 @@
         <v>-209.21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39.83</v>
       </c>
@@ -16094,7 +17641,7 @@
         <v>-438.55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50.11</v>
       </c>
@@ -16108,7 +17655,7 @@
         <v>-303.65999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>63.08</v>
       </c>
@@ -16122,7 +17669,7 @@
         <v>-369.41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>79.489999999999995</v>
       </c>
@@ -16136,7 +17683,7 @@
         <v>-386.99</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>99.97</v>
       </c>
@@ -16150,7 +17697,7 @@
         <v>-397.27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>126.05</v>
       </c>
@@ -16164,7 +17711,7 @@
         <v>-461.36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>158.49</v>
       </c>
@@ -16188,13 +17735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16208,7 +17755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.16</v>
       </c>
@@ -16222,7 +17769,7 @@
         <v>-1.78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -16236,7 +17783,7 @@
         <v>-4.1100000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -16250,7 +17797,7 @@
         <v>-4.82</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.32</v>
       </c>
@@ -16264,7 +17811,7 @@
         <v>-7.49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
@@ -16278,7 +17825,7 @@
         <v>-7.42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -16292,7 +17839,7 @@
         <v>-11.11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.63</v>
       </c>
@@ -16306,7 +17853,7 @@
         <v>-14.16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.79</v>
       </c>
@@ -16320,7 +17867,7 @@
         <v>-17.95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -16334,7 +17881,7 @@
         <v>-22.84</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.26</v>
       </c>
@@ -16348,7 +17895,7 @@
         <v>-27.68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.58</v>
       </c>
@@ -16362,7 +17909,7 @@
         <v>-30.11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.99</v>
       </c>
@@ -16376,7 +17923,7 @@
         <v>-38.67</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5099999999999998</v>
       </c>
@@ -16390,7 +17937,7 @@
         <v>-43.96</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.16</v>
       </c>
@@ -16404,7 +17951,7 @@
         <v>-51.45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.98</v>
       </c>
@@ -16418,7 +17965,7 @@
         <v>-60.08</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.01</v>
       </c>
@@ -16432,7 +17979,7 @@
         <v>-90.41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.31</v>
       </c>
@@ -16446,7 +17993,7 @@
         <v>-103.57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7.95</v>
       </c>
@@ -16460,7 +18007,7 @@
         <v>-80.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10.01</v>
       </c>
@@ -16474,7 +18021,7 @@
         <v>-99.46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.58</v>
       </c>
@@ -16488,7 +18035,7 @@
         <v>-143.80000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15.86</v>
       </c>
@@ -16502,7 +18049,7 @@
         <v>-114.56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19.95</v>
       </c>
@@ -16516,7 +18063,7 @@
         <v>-18.34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25.11</v>
       </c>
@@ -16530,7 +18077,7 @@
         <v>-171.21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31.64</v>
       </c>
@@ -16544,7 +18091,7 @@
         <v>-188.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39.83</v>
       </c>
@@ -16558,7 +18105,7 @@
         <v>-432.69</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>50.11</v>
       </c>
@@ -16572,7 +18119,7 @@
         <v>-240.22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>63.08</v>
       </c>
@@ -16586,7 +18133,7 @@
         <v>-377.34</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>79.489999999999995</v>
       </c>
@@ -16600,7 +18147,7 @@
         <v>-455.54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99.97</v>
       </c>
@@ -16614,7 +18161,7 @@
         <v>-397.7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>126.05</v>
       </c>
@@ -16628,7 +18175,7 @@
         <v>-454.15999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>158.49</v>
       </c>
